--- a/Live.Optics.DataDomainAutomationTests/ASUPS/APM00135225329/ Data Domain Config - APM00135225329 - 2019-07-06.xlsx
+++ b/Live.Optics.DataDomainAutomationTests/ASUPS/APM00135225329/ Data Domain Config - APM00135225329 - 2019-07-06.xlsx
@@ -35219,10 +35219,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="7">
-        <v>1.992e-006</v>
+        <v>1.992e-06</v>
       </c>
       <c r="P2" s="7">
-        <v>4.96e-007</v>
+        <v>4.96e-07</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
